--- a/Table.xlsx
+++ b/Table.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="39">
   <si>
     <t>Name</t>
   </si>
@@ -59,10 +59,10 @@
     <t>Path 61</t>
   </si>
   <si>
-    <t>pfm_top_i/dynamic_region/TOPS_topkernelS_1/inst/gmem0_m_axi_U/bus_read/rs_rdata/FSM_sequential_state_reg[1]/C</t>
-  </si>
-  <si>
-    <t>pfm_top_i/dynamic_region/TOPS_topkernelS_1/inst/gmem0_m_axi_U/bus_read/rs_rdata/data_p1_reg[303]/CE</t>
+    <t>pfm_top_i/dynamic_region/top_function_1/inst/gmem1_m_axi_U/bus_read/rs_rdata/state_reg[0]/C</t>
+  </si>
+  <si>
+    <t>pfm_top_i/dynamic_region/top_function_1/inst/gmem0_m_axi_U/bus_read/rs_rdata/data_p1_reg[14]/CE</t>
   </si>
   <si>
     <t>clk_out1_pfm_top_clkwiz_kernel_0</t>
@@ -74,55 +74,61 @@
     <t>Path 62</t>
   </si>
   <si>
-    <t>pfm_top_i/dynamic_region/TOPS_topkernelS_1/inst/gmem0_m_axi_U/bus_read/rs_rdata/data_p1_reg[347]/CE</t>
+    <t>pfm_top_i/dynamic_region/top_function_1/inst/gmem0_m_axi_U/bus_read/rs_rdata/data_p1_reg[2]/CE</t>
   </si>
   <si>
     <t>Path 63</t>
   </si>
   <si>
-    <t>pfm_top_i/dynamic_region/TOPS_topkernelS_1/inst/gmem0_m_axi_U/bus_read/rs_rdata/data_p1_reg[115]/CE</t>
+    <t>pfm_top_i/dynamic_region/top_function_1/inst/gmem0_m_axi_U/bus_read/rs_rdata/data_p1_reg[4]/CE</t>
   </si>
   <si>
     <t>Path 64</t>
   </si>
   <si>
-    <t>pfm_top_i/dynamic_region/TOPS_topkernelS_1/inst/gmem0_m_axi_U/bus_read/rs_rdata/data_p1_reg[452]/CE</t>
+    <t>pfm_top_i/dynamic_region/top_function_1/inst/grp_top_function_Pipeline_VC_EXCHANGE_UPDATES_LOOP1C_fu_30922/trunc_ln4647_reg_15716_reg[2]_rep__5/C</t>
+  </si>
+  <si>
+    <t>pfm_top_i/dynamic_region/top_function_1/inst/vdata_buffer_6_1_U/top_function_vdata_buffer_0_0_XPM_MEMORY_URAM_2R1W_ram_U/xpm_memory_spram_inst/xpm_memory_base_inst/gen_wr_a.gen_word_narrow.mem_reg_uram_0/ADDR_A[9]</t>
   </si>
   <si>
     <t>Path 65</t>
   </si>
   <si>
-    <t>pfm_top_i/dynamic_region/TOPS_topkernelS_1/inst/gmem0_m_axi_U/bus_read/rs_rdata/data_p1_reg[290]/CE</t>
+    <t>pfm_top_i/dynamic_region/top_function_1/inst/vdata_buffer_10_4_U/top_function_vdata_buffer_0_0_XPM_MEMORY_URAM_2R1W_ram_U/xpm_memory_spram_inst/xpm_memory_base_inst/gen_wr_a.gen_word_narrow.mem_reg_uram_0/ADDR_A[9]</t>
   </si>
   <si>
     <t>Path 66</t>
   </si>
   <si>
-    <t>pfm_top_i/dynamic_region/TOPS_topkernelS_1/inst/gmem0_m_axi_U/bus_read/rs_rdata/data_p1_reg[354]/CE</t>
+    <t>pfm_top_i/dynamic_region/top_function_1/inst/gmem0_m_axi_U/bus_read/rs_rdata/data_p1_reg[15]/CE</t>
   </si>
   <si>
     <t>Path 67</t>
   </si>
   <si>
-    <t>pfm_top_i/dynamic_region/TOPS_topkernelS_1/inst/gmem0_m_axi_U/bus_read/rs_rdata/data_p1_reg[164]/CE</t>
+    <t>pfm_top_i/dynamic_region/top_function_1/inst/gmem0_m_axi_U/bus_read/rs_rdata/data_p1_reg[1]/CE</t>
   </si>
   <si>
     <t>Path 68</t>
   </si>
   <si>
-    <t>pfm_top_i/dynamic_region/TOPS_topkernelS_1/inst/gmem0_m_axi_U/bus_read/rs_rdata/data_p1_reg[366]/CE</t>
+    <t>pfm_top_i/dynamic_region/top_function_1/inst/gmem0_m_axi_U/bus_read/rs_rdata/data_p1_reg[3]/CE</t>
   </si>
   <si>
     <t>Path 69</t>
   </si>
   <si>
-    <t>pfm_top_i/dynamic_region/TOPS_topkernelS_1/inst/gmem0_m_axi_U/bus_read/rs_rdata/data_p1_reg[448]/CE</t>
+    <t>pfm_top_i/dynamic_region/top_function_1/inst/gmem0_m_axi_U/bus_read/rs_rdata/data_p1_reg[6]/CE</t>
   </si>
   <si>
     <t>Path 70</t>
   </si>
   <si>
-    <t>pfm_top_i/dynamic_region/TOPS_topkernelS_1/inst/gmem0_m_axi_U/bus_read/rs_rdata/data_p1_reg[68]/CE</t>
+    <t>pfm_top_i/dynamic_region/top_function_1/inst/grp_top_function_Pipeline_VC_EXCHANGE_UPDATES_LOOP1C_fu_30922/trunc_ln4647_reg_15716_reg[0]_rep__10/C</t>
+  </si>
+  <si>
+    <t>pfm_top_i/dynamic_region/top_function_1/inst/vdata_buffer_0_7_U/top_function_vdata_buffer_0_0_XPM_MEMORY_URAM_2R1W_ram_U/xpm_memory_spram_inst/xpm_memory_base_inst/gen_wr_a.gen_word_narrow.mem_reg_uram_0/ADDR_A[5]</t>
   </si>
 </sst>
 </file>
@@ -268,13 +274,13 @@
         <v>14</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>-0.7166791558265686</v>
+        <v>-4.209424018859863</v>
       </c>
       <c r="C2" t="n" s="6">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="D2" t="n" s="6">
-        <v>516.0</v>
+        <v>28.0</v>
       </c>
       <c r="E2" t="s" s="2">
         <v>15</v>
@@ -283,13 +289,13 @@
         <v>16</v>
       </c>
       <c r="G2" t="n" s="4">
-        <v>3.9210004806518555</v>
+        <v>7.747999668121338</v>
       </c>
       <c r="H2" t="n" s="4">
-        <v>0.12999999523162842</v>
+        <v>0.8120000958442688</v>
       </c>
       <c r="I2" t="n" s="4">
-        <v>3.7909998893737793</v>
+        <v>6.936000347137451</v>
       </c>
       <c r="J2" t="n" s="4">
         <v>3.3333334922790527</v>
@@ -312,13 +318,13 @@
         <v>19</v>
       </c>
       <c r="B3" t="n" s="4">
-        <v>-0.7166791558265686</v>
+        <v>-4.209424018859863</v>
       </c>
       <c r="C3" t="n" s="6">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="D3" t="n" s="6">
-        <v>516.0</v>
+        <v>28.0</v>
       </c>
       <c r="E3" t="s" s="2">
         <v>15</v>
@@ -327,13 +333,13 @@
         <v>20</v>
       </c>
       <c r="G3" t="n" s="4">
-        <v>3.9210004806518555</v>
+        <v>7.747999668121338</v>
       </c>
       <c r="H3" t="n" s="4">
-        <v>0.12999999523162842</v>
+        <v>0.8120000958442688</v>
       </c>
       <c r="I3" t="n" s="4">
-        <v>3.7909998893737793</v>
+        <v>6.936000347137451</v>
       </c>
       <c r="J3" t="n" s="4">
         <v>3.3333334922790527</v>
@@ -356,13 +362,13 @@
         <v>21</v>
       </c>
       <c r="B4" t="n" s="4">
-        <v>-0.7148246169090271</v>
+        <v>-4.209424018859863</v>
       </c>
       <c r="C4" t="n" s="6">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="D4" t="n" s="6">
-        <v>516.0</v>
+        <v>28.0</v>
       </c>
       <c r="E4" t="s" s="2">
         <v>15</v>
@@ -371,13 +377,13 @@
         <v>22</v>
       </c>
       <c r="G4" t="n" s="4">
-        <v>3.641000509262085</v>
+        <v>7.747999668121338</v>
       </c>
       <c r="H4" t="n" s="4">
-        <v>0.12999999523162842</v>
+        <v>0.8120000958442688</v>
       </c>
       <c r="I4" t="n" s="4">
-        <v>3.510999917984009</v>
+        <v>6.936000347137451</v>
       </c>
       <c r="J4" t="n" s="4">
         <v>3.3333334922790527</v>
@@ -400,28 +406,28 @@
         <v>23</v>
       </c>
       <c r="B5" t="n" s="4">
-        <v>-0.7148246169090271</v>
+        <v>-4.204823970794678</v>
       </c>
       <c r="C5" t="n" s="6">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="D5" t="n" s="6">
-        <v>516.0</v>
+        <v>147.0</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G5" t="n" s="4">
-        <v>3.641000509262085</v>
+        <v>6.881999969482422</v>
       </c>
       <c r="H5" t="n" s="4">
-        <v>0.12999999523162842</v>
+        <v>0.4700000286102295</v>
       </c>
       <c r="I5" t="n" s="4">
-        <v>3.510999917984009</v>
+        <v>6.4120001792907715</v>
       </c>
       <c r="J5" t="n" s="4">
         <v>3.3333334922790527</v>
@@ -441,31 +447,31 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" t="n" s="4">
-        <v>-0.7146638631820679</v>
+        <v>-4.203824996948242</v>
       </c>
       <c r="C6" t="n" s="6">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="D6" t="n" s="6">
-        <v>516.0</v>
+        <v>147.0</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G6" t="n" s="4">
-        <v>3.9159998893737793</v>
+        <v>7.164000034332275</v>
       </c>
       <c r="H6" t="n" s="4">
-        <v>0.12999999523162842</v>
+        <v>0.4710000157356262</v>
       </c>
       <c r="I6" t="n" s="4">
-        <v>3.7860000133514404</v>
+        <v>6.692999839782715</v>
       </c>
       <c r="J6" t="n" s="4">
         <v>3.3333334922790527</v>
@@ -485,31 +491,31 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B7" t="n" s="4">
-        <v>-0.7146638631820679</v>
+        <v>-4.203422546386719</v>
       </c>
       <c r="C7" t="n" s="6">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="D7" t="n" s="6">
-        <v>516.0</v>
+        <v>28.0</v>
       </c>
       <c r="E7" t="s" s="2">
         <v>15</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G7" t="n" s="4">
-        <v>3.9159998893737793</v>
+        <v>7.7349982261657715</v>
       </c>
       <c r="H7" t="n" s="4">
-        <v>0.12999999523162842</v>
+        <v>0.8120000958442688</v>
       </c>
       <c r="I7" t="n" s="4">
-        <v>3.7860000133514404</v>
+        <v>6.922999858856201</v>
       </c>
       <c r="J7" t="n" s="4">
         <v>3.3333334922790527</v>
@@ -529,31 +535,31 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8" t="n" s="4">
-        <v>-0.7098242044448853</v>
+        <v>-4.203422546386719</v>
       </c>
       <c r="C8" t="n" s="6">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="D8" t="n" s="6">
-        <v>516.0</v>
+        <v>28.0</v>
       </c>
       <c r="E8" t="s" s="2">
         <v>15</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G8" t="n" s="4">
-        <v>3.635999917984009</v>
+        <v>7.7349982261657715</v>
       </c>
       <c r="H8" t="n" s="4">
-        <v>0.12999999523162842</v>
+        <v>0.8120000958442688</v>
       </c>
       <c r="I8" t="n" s="4">
-        <v>3.50600004196167</v>
+        <v>6.922999858856201</v>
       </c>
       <c r="J8" t="n" s="4">
         <v>3.3333334922790527</v>
@@ -573,31 +579,31 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" t="n" s="4">
-        <v>-0.7098242044448853</v>
+        <v>-4.203422546386719</v>
       </c>
       <c r="C9" t="n" s="6">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="D9" t="n" s="6">
-        <v>516.0</v>
+        <v>28.0</v>
       </c>
       <c r="E9" t="s" s="2">
         <v>15</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G9" t="n" s="4">
-        <v>3.635999917984009</v>
+        <v>7.7349982261657715</v>
       </c>
       <c r="H9" t="n" s="4">
-        <v>0.12999999523162842</v>
+        <v>0.8120000958442688</v>
       </c>
       <c r="I9" t="n" s="4">
-        <v>3.50600004196167</v>
+        <v>6.922999858856201</v>
       </c>
       <c r="J9" t="n" s="4">
         <v>3.3333334922790527</v>
@@ -617,31 +623,31 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B10" t="n" s="4">
-        <v>-0.7098242044448853</v>
+        <v>-4.203422546386719</v>
       </c>
       <c r="C10" t="n" s="6">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="D10" t="n" s="6">
-        <v>516.0</v>
+        <v>28.0</v>
       </c>
       <c r="E10" t="s" s="2">
         <v>15</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G10" t="n" s="4">
-        <v>3.635999917984009</v>
+        <v>7.7349982261657715</v>
       </c>
       <c r="H10" t="n" s="4">
-        <v>0.12999999523162842</v>
+        <v>0.8120000958442688</v>
       </c>
       <c r="I10" t="n" s="4">
-        <v>3.50600004196167</v>
+        <v>6.922999858856201</v>
       </c>
       <c r="J10" t="n" s="4">
         <v>3.3333334922790527</v>
@@ -661,31 +667,31 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B11" t="n" s="4">
-        <v>-0.7098242044448853</v>
+        <v>-4.202823638916016</v>
       </c>
       <c r="C11" t="n" s="6">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="D11" t="n" s="6">
-        <v>516.0</v>
+        <v>147.0</v>
       </c>
       <c r="E11" t="s" s="2">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G11" t="n" s="4">
-        <v>3.635999917984009</v>
+        <v>6.8219990730285645</v>
       </c>
       <c r="H11" t="n" s="4">
-        <v>0.12999999523162842</v>
+        <v>0.7439999580383301</v>
       </c>
       <c r="I11" t="n" s="4">
-        <v>3.50600004196167</v>
+        <v>6.078000545501709</v>
       </c>
       <c r="J11" t="n" s="4">
         <v>3.3333334922790527</v>

--- a/Table.xlsx
+++ b/Table.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="38">
   <si>
     <t>Name</t>
   </si>
@@ -59,10 +59,10 @@
     <t>Path 61</t>
   </si>
   <si>
-    <t>pfm_top_i/dynamic_region/top_function_1/inst/gmem1_m_axi_U/bus_read/rs_rdata/state_reg[0]/C</t>
-  </si>
-  <si>
-    <t>pfm_top_i/dynamic_region/top_function_1/inst/gmem0_m_axi_U/bus_read/rs_rdata/data_p1_reg[14]/CE</t>
+    <t>pfm_top_i/dynamic_region/top_function_1/inst/grp_top_function_Pipeline_VC_READVPTRS_LOOP2_fu_3132/grp_master_retrieve_fu_237/v_read_reg_569_pp0_iter71_reg_reg[3]__0/C</t>
+  </si>
+  <si>
+    <t>pfm_top_i/dynamic_region/top_function_1/inst/grp_top_function_Pipeline_VC_READVPTRS_LOOP2_fu_3132/data_size_1_reg_562_reg[0]/R</t>
   </si>
   <si>
     <t>clk_out1_pfm_top_clkwiz_kernel_0</t>
@@ -74,61 +74,58 @@
     <t>Path 62</t>
   </si>
   <si>
-    <t>pfm_top_i/dynamic_region/top_function_1/inst/gmem0_m_axi_U/bus_read/rs_rdata/data_p1_reg[2]/CE</t>
+    <t>pfm_top_i/dynamic_region/top_function_1/inst/grp_top_function_Pipeline_VC_READVPTRS_LOOP2_fu_3132/data_size_1_reg_562_reg[1]/R</t>
   </si>
   <si>
     <t>Path 63</t>
   </si>
   <si>
-    <t>pfm_top_i/dynamic_region/top_function_1/inst/gmem0_m_axi_U/bus_read/rs_rdata/data_p1_reg[4]/CE</t>
+    <t>pfm_top_i/dynamic_region/top_function_1/inst/grp_top_function_Pipeline_VC_READVPTRS_LOOP2_fu_3132/data_size_1_reg_562_reg[2]/R</t>
   </si>
   <si>
     <t>Path 64</t>
   </si>
   <si>
-    <t>pfm_top_i/dynamic_region/top_function_1/inst/grp_top_function_Pipeline_VC_EXCHANGE_UPDATES_LOOP1C_fu_30922/trunc_ln4647_reg_15716_reg[2]_rep__5/C</t>
-  </si>
-  <si>
-    <t>pfm_top_i/dynamic_region/top_function_1/inst/vdata_buffer_6_1_U/top_function_vdata_buffer_0_0_XPM_MEMORY_URAM_2R1W_ram_U/xpm_memory_spram_inst/xpm_memory_base_inst/gen_wr_a.gen_word_narrow.mem_reg_uram_0/ADDR_A[9]</t>
+    <t>pfm_top_i/dynamic_region/top_function_1/inst/grp_top_function_Pipeline_VC_READVPTRS_LOOP2_fu_3132/data_size_1_reg_562_reg[3]/R</t>
   </si>
   <si>
     <t>Path 65</t>
   </si>
   <si>
-    <t>pfm_top_i/dynamic_region/top_function_1/inst/vdata_buffer_10_4_U/top_function_vdata_buffer_0_0_XPM_MEMORY_URAM_2R1W_ram_U/xpm_memory_spram_inst/xpm_memory_base_inst/gen_wr_a.gen_word_narrow.mem_reg_uram_0/ADDR_A[9]</t>
+    <t>pfm_top_i/dynamic_region/top_function_1/inst/grp_top_function_Pipeline_VC_READVPTRS_LOOP2_fu_3132/data_size_1_reg_562_reg[4]/R</t>
   </si>
   <si>
     <t>Path 66</t>
   </si>
   <si>
-    <t>pfm_top_i/dynamic_region/top_function_1/inst/gmem0_m_axi_U/bus_read/rs_rdata/data_p1_reg[15]/CE</t>
+    <t>pfm_top_i/dynamic_region/top_function_1/inst/grp_top_function_Pipeline_VC_READVPTRS_LOOP2_fu_3132/data_size_1_reg_562_reg[5]/R</t>
   </si>
   <si>
     <t>Path 67</t>
   </si>
   <si>
-    <t>pfm_top_i/dynamic_region/top_function_1/inst/gmem0_m_axi_U/bus_read/rs_rdata/data_p1_reg[1]/CE</t>
+    <t>pfm_top_i/dynamic_region/top_function_1/inst/grp_top_function_Pipeline_VC_READVPTRS_LOOP2_fu_3132/data_size_1_reg_562_reg[6]/R</t>
   </si>
   <si>
     <t>Path 68</t>
   </si>
   <si>
-    <t>pfm_top_i/dynamic_region/top_function_1/inst/gmem0_m_axi_U/bus_read/rs_rdata/data_p1_reg[3]/CE</t>
+    <t>pfm_top_i/dynamic_region/top_function_1/inst/grp_top_function_Pipeline_VC_READVPTRS_LOOP2_fu_3132/data_size_1_reg_562_reg[7]/R</t>
   </si>
   <si>
     <t>Path 69</t>
   </si>
   <si>
-    <t>pfm_top_i/dynamic_region/top_function_1/inst/gmem0_m_axi_U/bus_read/rs_rdata/data_p1_reg[6]/CE</t>
+    <t>pfm_top_i/dynamic_region/top_function_1/inst/grp_load_edges_fu_3195/grp_load_edges_Pipeline_VC_READ_EDGES_LOOP1B_fu_303/ap_enable_reg_pp0_iter11_reg/C</t>
+  </si>
+  <si>
+    <t>pfm_top_i/dynamic_region/top_function_1/inst/gmem0_m_axi_U/bus_read/rs_rdata/data_p1_reg[108]/CE</t>
   </si>
   <si>
     <t>Path 70</t>
   </si>
   <si>
-    <t>pfm_top_i/dynamic_region/top_function_1/inst/grp_top_function_Pipeline_VC_EXCHANGE_UPDATES_LOOP1C_fu_30922/trunc_ln4647_reg_15716_reg[0]_rep__10/C</t>
-  </si>
-  <si>
-    <t>pfm_top_i/dynamic_region/top_function_1/inst/vdata_buffer_0_7_U/top_function_vdata_buffer_0_0_XPM_MEMORY_URAM_2R1W_ram_U/xpm_memory_spram_inst/xpm_memory_base_inst/gen_wr_a.gen_word_narrow.mem_reg_uram_0/ADDR_A[5]</t>
+    <t>pfm_top_i/dynamic_region/top_function_1/inst/gmem0_m_axi_U/bus_read/rs_rdata/data_p1_reg[432]/CE</t>
   </si>
 </sst>
 </file>
@@ -274,13 +271,13 @@
         <v>14</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>-4.209424018859863</v>
+        <v>-0.5552500486373901</v>
       </c>
       <c r="C2" t="n" s="6">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="D2" t="n" s="6">
-        <v>28.0</v>
+        <v>64.0</v>
       </c>
       <c r="E2" t="s" s="2">
         <v>15</v>
@@ -289,13 +286,13 @@
         <v>16</v>
       </c>
       <c r="G2" t="n" s="4">
-        <v>7.747999668121338</v>
+        <v>3.5940001010894775</v>
       </c>
       <c r="H2" t="n" s="4">
-        <v>0.8120000958442688</v>
+        <v>0.5729999542236328</v>
       </c>
       <c r="I2" t="n" s="4">
-        <v>6.936000347137451</v>
+        <v>3.0210001468658447</v>
       </c>
       <c r="J2" t="n" s="4">
         <v>3.3333334922790527</v>
@@ -318,13 +315,13 @@
         <v>19</v>
       </c>
       <c r="B3" t="n" s="4">
-        <v>-4.209424018859863</v>
+        <v>-0.5552500486373901</v>
       </c>
       <c r="C3" t="n" s="6">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="D3" t="n" s="6">
-        <v>28.0</v>
+        <v>64.0</v>
       </c>
       <c r="E3" t="s" s="2">
         <v>15</v>
@@ -333,13 +330,13 @@
         <v>20</v>
       </c>
       <c r="G3" t="n" s="4">
-        <v>7.747999668121338</v>
+        <v>3.5940001010894775</v>
       </c>
       <c r="H3" t="n" s="4">
-        <v>0.8120000958442688</v>
+        <v>0.5729999542236328</v>
       </c>
       <c r="I3" t="n" s="4">
-        <v>6.936000347137451</v>
+        <v>3.0210001468658447</v>
       </c>
       <c r="J3" t="n" s="4">
         <v>3.3333334922790527</v>
@@ -362,13 +359,13 @@
         <v>21</v>
       </c>
       <c r="B4" t="n" s="4">
-        <v>-4.209424018859863</v>
+        <v>-0.5552500486373901</v>
       </c>
       <c r="C4" t="n" s="6">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="D4" t="n" s="6">
-        <v>28.0</v>
+        <v>64.0</v>
       </c>
       <c r="E4" t="s" s="2">
         <v>15</v>
@@ -377,13 +374,13 @@
         <v>22</v>
       </c>
       <c r="G4" t="n" s="4">
-        <v>7.747999668121338</v>
+        <v>3.5940001010894775</v>
       </c>
       <c r="H4" t="n" s="4">
-        <v>0.8120000958442688</v>
+        <v>0.5729999542236328</v>
       </c>
       <c r="I4" t="n" s="4">
-        <v>6.936000347137451</v>
+        <v>3.0210001468658447</v>
       </c>
       <c r="J4" t="n" s="4">
         <v>3.3333334922790527</v>
@@ -406,28 +403,28 @@
         <v>23</v>
       </c>
       <c r="B5" t="n" s="4">
-        <v>-4.204823970794678</v>
+        <v>-0.5552500486373901</v>
       </c>
       <c r="C5" t="n" s="6">
         <v>6.0</v>
       </c>
       <c r="D5" t="n" s="6">
-        <v>147.0</v>
+        <v>64.0</v>
       </c>
       <c r="E5" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="F5" t="s" s="2">
-        <v>25</v>
-      </c>
       <c r="G5" t="n" s="4">
-        <v>6.881999969482422</v>
+        <v>3.5940001010894775</v>
       </c>
       <c r="H5" t="n" s="4">
-        <v>0.4700000286102295</v>
+        <v>0.5729999542236328</v>
       </c>
       <c r="I5" t="n" s="4">
-        <v>6.4120001792907715</v>
+        <v>3.0210001468658447</v>
       </c>
       <c r="J5" t="n" s="4">
         <v>3.3333334922790527</v>
@@ -447,31 +444,31 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" t="n" s="4">
-        <v>-4.203824996948242</v>
+        <v>-0.5522595643997192</v>
       </c>
       <c r="C6" t="n" s="6">
         <v>6.0</v>
       </c>
       <c r="D6" t="n" s="6">
-        <v>147.0</v>
+        <v>64.0</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G6" t="n" s="4">
-        <v>7.164000034332275</v>
+        <v>3.5930001735687256</v>
       </c>
       <c r="H6" t="n" s="4">
-        <v>0.4710000157356262</v>
+        <v>0.5729999542236328</v>
       </c>
       <c r="I6" t="n" s="4">
-        <v>6.692999839782715</v>
+        <v>3.0199999809265137</v>
       </c>
       <c r="J6" t="n" s="4">
         <v>3.3333334922790527</v>
@@ -491,31 +488,31 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" t="n" s="4">
-        <v>-4.203422546386719</v>
+        <v>-0.5522595643997192</v>
       </c>
       <c r="C7" t="n" s="6">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="D7" t="n" s="6">
-        <v>28.0</v>
+        <v>64.0</v>
       </c>
       <c r="E7" t="s" s="2">
         <v>15</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G7" t="n" s="4">
-        <v>7.7349982261657715</v>
+        <v>3.5930001735687256</v>
       </c>
       <c r="H7" t="n" s="4">
-        <v>0.8120000958442688</v>
+        <v>0.5729999542236328</v>
       </c>
       <c r="I7" t="n" s="4">
-        <v>6.922999858856201</v>
+        <v>3.0199999809265137</v>
       </c>
       <c r="J7" t="n" s="4">
         <v>3.3333334922790527</v>
@@ -535,31 +532,31 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" t="n" s="4">
-        <v>-4.203422546386719</v>
+        <v>-0.5522595643997192</v>
       </c>
       <c r="C8" t="n" s="6">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="D8" t="n" s="6">
-        <v>28.0</v>
+        <v>64.0</v>
       </c>
       <c r="E8" t="s" s="2">
         <v>15</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G8" t="n" s="4">
-        <v>7.7349982261657715</v>
+        <v>3.5930001735687256</v>
       </c>
       <c r="H8" t="n" s="4">
-        <v>0.8120000958442688</v>
+        <v>0.5729999542236328</v>
       </c>
       <c r="I8" t="n" s="4">
-        <v>6.922999858856201</v>
+        <v>3.0199999809265137</v>
       </c>
       <c r="J8" t="n" s="4">
         <v>3.3333334922790527</v>
@@ -579,31 +576,31 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" t="n" s="4">
-        <v>-4.203422546386719</v>
+        <v>-0.5522595643997192</v>
       </c>
       <c r="C9" t="n" s="6">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="D9" t="n" s="6">
-        <v>28.0</v>
+        <v>64.0</v>
       </c>
       <c r="E9" t="s" s="2">
         <v>15</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G9" t="n" s="4">
-        <v>7.7349982261657715</v>
+        <v>3.5930001735687256</v>
       </c>
       <c r="H9" t="n" s="4">
-        <v>0.8120000958442688</v>
+        <v>0.5729999542236328</v>
       </c>
       <c r="I9" t="n" s="4">
-        <v>6.922999858856201</v>
+        <v>3.0199999809265137</v>
       </c>
       <c r="J9" t="n" s="4">
         <v>3.3333334922790527</v>
@@ -623,31 +620,31 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B10" t="n" s="4">
+        <v>-0.5508242845535278</v>
+      </c>
+      <c r="C10" t="n" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="D10" t="n" s="6">
+        <v>512.0</v>
+      </c>
+      <c r="E10" t="s" s="2">
         <v>34</v>
-      </c>
-      <c r="B10" t="n" s="4">
-        <v>-4.203422546386719</v>
-      </c>
-      <c r="C10" t="n" s="6">
-        <v>7.0</v>
-      </c>
-      <c r="D10" t="n" s="6">
-        <v>28.0</v>
-      </c>
-      <c r="E10" t="s" s="2">
-        <v>15</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G10" t="n" s="4">
-        <v>7.7349982261657715</v>
+        <v>3.8349997997283936</v>
       </c>
       <c r="H10" t="n" s="4">
-        <v>0.8120000958442688</v>
+        <v>0.9940000176429749</v>
       </c>
       <c r="I10" t="n" s="4">
-        <v>6.922999858856201</v>
+        <v>2.8409998416900635</v>
       </c>
       <c r="J10" t="n" s="4">
         <v>3.3333334922790527</v>
@@ -670,28 +667,28 @@
         <v>36</v>
       </c>
       <c r="B11" t="n" s="4">
-        <v>-4.202823638916016</v>
+        <v>-0.5508242845535278</v>
       </c>
       <c r="C11" t="n" s="6">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="D11" t="n" s="6">
-        <v>147.0</v>
+        <v>512.0</v>
       </c>
       <c r="E11" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="F11" t="s" s="2">
-        <v>38</v>
-      </c>
       <c r="G11" t="n" s="4">
-        <v>6.8219990730285645</v>
+        <v>3.8349997997283936</v>
       </c>
       <c r="H11" t="n" s="4">
-        <v>0.7439999580383301</v>
+        <v>0.9940000176429749</v>
       </c>
       <c r="I11" t="n" s="4">
-        <v>6.078000545501709</v>
+        <v>2.8409998416900635</v>
       </c>
       <c r="J11" t="n" s="4">
         <v>3.3333334922790527</v>
